--- a/artfynd/A 23815-2023.xlsx
+++ b/artfynd/A 23815-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111408013</v>
+        <v>111407996</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,7 +713,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -721,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>552471.8765200907</v>
+        <v>552410.6667086715</v>
       </c>
       <c r="R2" t="n">
-        <v>6703516.674196084</v>
+        <v>6703546.864278791</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +760,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +770,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111407996</v>
+        <v>111408013</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -826,11 +830,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>552410.6667086715</v>
+        <v>552471.8765200907</v>
       </c>
       <c r="R3" t="n">
-        <v>6703546.864278791</v>
+        <v>6703516.674196084</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 23815-2023.xlsx
+++ b/artfynd/A 23815-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111407996</v>
+        <v>111408013</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,11 +713,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -725,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>552410.6667086715</v>
+        <v>552471.8765200907</v>
       </c>
       <c r="R2" t="n">
-        <v>6703546.864278791</v>
+        <v>6703516.674196084</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -770,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111408013</v>
+        <v>111407996</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -830,7 +826,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>552471.8765200907</v>
+        <v>552410.6667086715</v>
       </c>
       <c r="R3" t="n">
-        <v>6703516.674196084</v>
+        <v>6703546.864278791</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
